--- a/inventory/raw_data/table_6_3_combining.xlsx
+++ b/inventory/raw_data/table_6_3_combining.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsand\Repositories\Engines\inventory\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\gsanders\Documents\Repositories\Engines\inventory\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8FCDDC2-8AD6-41D4-87FD-5531FA445EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0D3ACC-1670-4E90-B7CA-AA094789ED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305"/>
+    <workbookView xWindow="31095" yWindow="810" windowWidth="12630" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_6_3_page1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
   <si>
     <t>NAVAIR</t>
   </si>
@@ -269,12 +282,48 @@
   </si>
   <si>
     <t>F404GE- 400D</t>
+  </si>
+  <si>
+    <t>TF34GE-400</t>
+  </si>
+  <si>
+    <t>TF34GE-100</t>
+  </si>
+  <si>
+    <t>TF34GE-2</t>
+  </si>
+  <si>
+    <t>TF33P- 1/3</t>
+  </si>
+  <si>
+    <t>TF30P-414A</t>
+  </si>
+  <si>
+    <t>TF30P- 100/111</t>
+  </si>
+  <si>
+    <t>TF30P-412</t>
+  </si>
+  <si>
+    <t>TF30P-408</t>
+  </si>
+  <si>
+    <t>TF30P-7</t>
+  </si>
+  <si>
+    <t>TF30P- 12/12A</t>
+  </si>
+  <si>
+    <t>TF30P-8</t>
+  </si>
+  <si>
+    <t>TF30P-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1108,22 +1157,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD17"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1279,51 +1328,51 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>9071.73</v>
+        <v>8722.85</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.92657</v>
+        <v>0.97604999999999997</v>
       </c>
       <c r="J7">
-        <v>0.99341000000000002</v>
+        <v>1.0857300000000001</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
+        <v>93</v>
+      </c>
+      <c r="B8">
+        <v>9322.66</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1332,16 +1381,16 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.94108000000000003</v>
       </c>
       <c r="J8">
-        <v>0.68593999999999999</v>
+        <v>0.83294999999999997</v>
       </c>
       <c r="K8" t="s">
         <v>30</v>
@@ -1349,13 +1398,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>6536.52</v>
+        <v>8723.32</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1364,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1373,59 +1422,59 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0.91966000000000003</v>
+        <v>0.93983000000000005</v>
       </c>
       <c r="J9">
-        <v>0.94108999999999998</v>
+        <v>0.86743999999999999</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B10">
-        <v>5347.38</v>
+        <v>8105.74</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.99556</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
+        <v>0.90066999999999997</v>
+      </c>
+      <c r="J10">
+        <v>0.77415</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B11">
-        <v>7895.13</v>
+        <v>8596.4599999999991</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1434,68 +1483,68 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0.92603000000000002</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
+        <v>0.88756000000000002</v>
+      </c>
+      <c r="J11">
+        <v>0.78410000000000002</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B12">
-        <v>8407.6</v>
+        <v>8099.61</v>
       </c>
       <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0.97674000000000005</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
+        <v>0.89163999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.80237000000000003</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B13">
-        <v>8281.93</v>
+        <v>7168.73</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1504,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1513,24 +1562,24 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.97458999999999996</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
+        <v>0.85224999999999995</v>
+      </c>
+      <c r="J13">
+        <v>0.92376000000000003</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B14">
-        <v>8715.91</v>
+        <v>4262.6099999999997</v>
       </c>
       <c r="C14">
-        <v>1.1000000000000001</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1539,33 +1588,33 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0.99739999999999995</v>
+        <v>0.80237999999999998</v>
       </c>
       <c r="J14">
-        <v>0.83140999999999998</v>
+        <v>0.66678000000000004</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B15">
-        <v>7397.27</v>
+        <v>7789.01</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1574,33 +1623,33 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.94406000000000001</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J15">
+        <v>1.0515600000000001</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B16">
-        <v>5911.53</v>
+        <v>8496.83</v>
       </c>
       <c r="C16">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1609,30 +1658,30 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.90871999999999997</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
+        <v>0.83472999999999997</v>
+      </c>
+      <c r="J16">
+        <v>0.90108999999999995</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B17">
-        <v>4595.92</v>
+        <v>9492.86</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1644,103 +1693,103 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.86999000000000004</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
+        <v>0.87875999999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.79266000000000003</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B18">
-        <v>9416.2099999999991</v>
+        <v>4666.49</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03556</v>
-      </c>
-      <c r="J18">
-        <v>0.79569000000000001</v>
+        <v>0.78437999999999997</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B19">
-        <v>8381.66</v>
+        <v>9071.73</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.94477999999999995</v>
+        <v>0.92657</v>
       </c>
       <c r="J19">
-        <v>0.85192000000000001</v>
+        <v>0.99341000000000002</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>9356.8700000000008</v>
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1749,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1757,25 +1806,25 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0.96533999999999998</v>
+      <c r="I20" t="s">
+        <v>21</v>
       </c>
       <c r="J20">
-        <v>0.76073000000000002</v>
+        <v>0.68593999999999999</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B21">
-        <v>9106.86</v>
+        <v>6536.52</v>
       </c>
       <c r="C21">
-        <v>1.1000000000000001</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1793,42 +1842,42 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.93852999999999998</v>
+        <v>0.91966000000000003</v>
       </c>
       <c r="J21">
-        <v>0.72399999999999998</v>
+        <v>0.94108999999999998</v>
       </c>
       <c r="K21" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>2536.64</v>
+        <v>5347.38</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.78251999999999999</v>
+        <v>0.99556</v>
       </c>
       <c r="J22" t="s">
         <v>21</v>
@@ -1839,19 +1888,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>11366.5</v>
+        <v>7895.13</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1863,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.0237000000000001</v>
-      </c>
-      <c r="J23">
-        <v>1.1547000000000001</v>
+        <v>0.92603000000000002</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>
@@ -1874,104 +1923,104 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>7347.95</v>
+        <v>8407.6</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.95208999999999999</v>
-      </c>
-      <c r="J24">
-        <v>0.86497999999999997</v>
+        <v>0.97674000000000005</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B25">
-        <v>7242.89</v>
+        <v>8281.93</v>
       </c>
       <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0.98580999999999996</v>
-      </c>
-      <c r="J25">
-        <v>0.97194000000000003</v>
+        <v>0.97458999999999996</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B26">
-        <v>9470.89</v>
+        <v>8715.91</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0.97499000000000002</v>
+        <v>0.99739999999999995</v>
       </c>
       <c r="J26">
-        <v>1.0392300000000001</v>
+        <v>0.83140999999999998</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -1979,48 +2028,48 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B27">
-        <v>5323.62</v>
+        <v>7397.27</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0.72358999999999996</v>
-      </c>
-      <c r="J27">
-        <v>0.39632000000000001</v>
+        <v>0.94406000000000001</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B28">
-        <v>5313.41</v>
+        <v>5911.53</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2029,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2038,80 +2087,80 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0.88068999999999997</v>
-      </c>
-      <c r="J28">
-        <v>0.84685999999999995</v>
+        <v>0.90871999999999997</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>4595.92</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0.86999000000000004</v>
+      </c>
+      <c r="J29" t="s">
         <v>21</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29">
-        <v>0.70623000000000002</v>
-      </c>
       <c r="K29" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>4603.42</v>
+        <v>9416.2099999999991</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.89698</v>
+        <v>1.03556</v>
       </c>
       <c r="J30">
-        <v>0.84431999999999996</v>
+        <v>0.79569000000000001</v>
       </c>
       <c r="K30" t="s">
         <v>26</v>
@@ -2119,13 +2168,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>3328.22</v>
+        <v>8381.66</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2134,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2143,45 +2192,45 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0.87068000000000001</v>
+        <v>0.94477999999999995</v>
       </c>
       <c r="J31">
-        <v>0.64497000000000004</v>
+        <v>0.85192000000000001</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>9356.8700000000008</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0.96533999999999998</v>
+      </c>
+      <c r="J32">
+        <v>0.76073000000000002</v>
       </c>
       <c r="K32" t="s">
         <v>26</v>
@@ -2189,48 +2238,48 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>9106.86</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0.93852999999999998</v>
+      </c>
+      <c r="J33">
+        <v>0.72399999999999998</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>9364.65</v>
+        <v>2536.64</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2239,42 +2288,42 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1.02579</v>
-      </c>
-      <c r="J34">
-        <v>0.89632000000000001</v>
+        <v>0.78251999999999999</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>9233.23</v>
+        <v>11366.5</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2283,24 +2332,24 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.96667999999999998</v>
+        <v>1.0237000000000001</v>
       </c>
       <c r="J35">
-        <v>0.88058999999999998</v>
+        <v>1.1547000000000001</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B36">
-        <v>8669.7999999999993</v>
+        <v>7347.95</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2309,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2318,152 +2367,572 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>0.91859999999999997</v>
+        <v>0.95208999999999999</v>
       </c>
       <c r="J36">
-        <v>0.83891000000000004</v>
+        <v>0.86497999999999997</v>
       </c>
       <c r="K36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>7242.89</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.98580999999999996</v>
+      </c>
+      <c r="J37">
+        <v>0.97194000000000003</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>9470.89</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.97499000000000002</v>
+      </c>
+      <c r="J38">
+        <v>1.0392300000000001</v>
       </c>
       <c r="K38" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" t="s">
-        <v>68</v>
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>5323.62</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.72358999999999996</v>
+      </c>
+      <c r="J39">
+        <v>0.39632000000000001</v>
       </c>
       <c r="K39" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>5313.41</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0.88068999999999997</v>
+      </c>
+      <c r="J40">
+        <v>0.84685999999999995</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41">
+        <v>0.70623000000000002</v>
+      </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>4603.42</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0.89698</v>
+      </c>
+      <c r="J42">
+        <v>0.84431999999999996</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>3328.22</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0.87068000000000001</v>
+      </c>
+      <c r="J43">
+        <v>0.64497000000000004</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>9364.65</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1.02579</v>
+      </c>
+      <c r="J46">
+        <v>0.89632000000000001</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>9233.23</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0.96667999999999998</v>
+      </c>
+      <c r="J47">
+        <v>0.88058999999999998</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>8669.7999999999993</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="J48">
+        <v>0.83891000000000004</v>
+      </c>
+      <c r="K48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>70</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B52" t="s">
         <v>71</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C52" t="s">
         <v>72</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D52" t="s">
         <v>73</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E52" t="s">
         <v>74</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F52" t="s">
         <v>75</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G52" t="s">
         <v>76</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H52" t="s">
         <v>77</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I52" t="s">
         <v>78</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J52" t="s">
         <v>79</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K52" t="s">
         <v>80</v>
       </c>
     </row>
